--- a/benchmarks/benchmark_hpc_3.xlsx
+++ b/benchmarks/benchmark_hpc_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA343ABB-4EB9-4E2A-AA49-D4DCEAAFA6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A45CE6-3920-4C20-99F2-8DA28596A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="2850" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,21 +537,36 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>649.06277490000002</v>
+      </c>
+      <c r="C2">
+        <v>661.19028330000003</v>
+      </c>
+      <c r="D2">
+        <v>650.95020910000005</v>
+      </c>
+      <c r="E2">
+        <v>675.84295280000003</v>
+      </c>
+      <c r="F2">
+        <v>677.92684829999996</v>
+      </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="0">MIN(B2:F2)</f>
-        <v>0</v>
+        <v>649.06277490000002</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H9" si="1">MAX(B2:F2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="e">
+        <v>677.92684829999996</v>
+      </c>
+      <c r="I2">
         <f t="shared" ref="I2:I9" si="2">AVERAGE(B2:F2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" t="e">
+        <v>662.99461368000004</v>
+      </c>
+      <c r="J2">
         <f t="shared" ref="J2:J9" si="3">_xlfn.STDEV.S(B2:F2)</f>
-        <v>#DIV/0!</v>
+        <v>13.513612308410311</v>
       </c>
       <c r="K2" t="e">
         <f>RANK(I2,I2:I9,1)</f>
@@ -574,21 +589,36 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>548.81468310000002</v>
+      </c>
+      <c r="C3">
+        <v>571.15397510000003</v>
+      </c>
+      <c r="D3">
+        <v>571.50614670000004</v>
+      </c>
+      <c r="E3">
+        <v>556.42221189999998</v>
+      </c>
+      <c r="F3">
+        <v>574.49818619999996</v>
+      </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>548.81468310000002</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" t="e">
+        <v>574.49818619999996</v>
+      </c>
+      <c r="I3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" t="e">
+        <v>564.47904059999996</v>
+      </c>
+      <c r="J3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>11.231683242761262</v>
       </c>
       <c r="K3" t="e">
         <f>RANK(I3,I2:I9,1)</f>

--- a/benchmarks/benchmark_hpc_3.xlsx
+++ b/benchmarks/benchmark_hpc_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A45CE6-3920-4C20-99F2-8DA28596A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED5588-FF50-47FA-B7A3-574D8E80157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="2850" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,9 +568,9 @@
         <f t="shared" ref="J2:J9" si="3">_xlfn.STDEV.S(B2:F2)</f>
         <v>13.513612308410311</v>
       </c>
-      <c r="K2" t="e">
+      <c r="K2">
         <f>RANK(I2,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -620,9 +620,9 @@
         <f t="shared" si="3"/>
         <v>11.231683242761262</v>
       </c>
-      <c r="K3" t="e">
+      <c r="K3">
         <f>RANK(I3,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -641,25 +641,40 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>711.40092200000004</v>
+      </c>
+      <c r="C4">
+        <v>712.36591739999994</v>
+      </c>
+      <c r="D4">
+        <v>708.90615879999996</v>
+      </c>
+      <c r="E4">
+        <v>710.5512923</v>
+      </c>
+      <c r="F4">
+        <v>709.70815430000005</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>708.90615879999996</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" t="e">
+        <v>712.36591739999994</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" t="e">
+        <v>710.58648896</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" t="e">
+        <v>1.3625240159500394</v>
+      </c>
+      <c r="K4">
         <f>RANK(I4,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -678,25 +693,28 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5">
+        <v>614.27758530000006</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>614.27758530000006</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" t="e">
+        <v>614.27758530000006</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>614.27758530000006</v>
       </c>
       <c r="J5" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" t="e">
+      <c r="K5">
         <f>RANK(I5,I2:I10,1)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -715,25 +733,28 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>530.93309499999998</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>530.93309499999998</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="e">
+        <v>530.93309499999998</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>530.93309499999998</v>
       </c>
       <c r="J6" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" t="e">
+      <c r="K6">
         <f>RANK(I6,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -752,25 +773,28 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7">
+        <v>432.97636460000001</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>432.97636460000001</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="e">
+        <v>432.97636460000001</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>432.97636460000001</v>
       </c>
       <c r="J7" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" t="e">
+      <c r="K7">
         <f>RANK(I7,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -789,25 +813,28 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>582.09260849999998</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>582.09260849999998</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" t="e">
+        <v>582.09260849999998</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>582.09260849999998</v>
       </c>
       <c r="J8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" t="e">
+      <c r="K8">
         <f>RANK(I8,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -826,25 +853,28 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>560.33793609999998</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>560.33793609999998</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
+        <v>560.33793609999998</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>560.33793609999998</v>
       </c>
       <c r="J9" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" t="e">
+      <c r="K9">
         <f>RANK(I9,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>

--- a/benchmarks/benchmark_hpc_3.xlsx
+++ b/benchmarks/benchmark_hpc_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED5588-FF50-47FA-B7A3-574D8E80157A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF60C99-C2B9-4146-A244-40C537F25099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2850" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
+    <workbookView xWindow="3015" yWindow="2970" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="K3">
         <f>RANK(I3,I2:I9,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -696,25 +696,37 @@
       <c r="B5">
         <v>614.27758530000006</v>
       </c>
+      <c r="C5">
+        <v>630.72968430000003</v>
+      </c>
+      <c r="D5">
+        <v>600.27741790000005</v>
+      </c>
+      <c r="E5">
+        <v>592.48984029999997</v>
+      </c>
+      <c r="F5">
+        <v>591.8398383</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>614.27758530000006</v>
+        <v>591.8398383</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>614.27758530000006</v>
+        <v>630.72968430000003</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>614.27758530000006</v>
-      </c>
-      <c r="J5" t="e">
+        <v>605.92287322000004</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>16.551650232351239</v>
       </c>
       <c r="K5">
         <f>RANK(I5,I2:I10,1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -736,9 +748,21 @@
       <c r="B6">
         <v>530.93309499999998</v>
       </c>
+      <c r="C6">
+        <v>508.77845150000002</v>
+      </c>
+      <c r="D6">
+        <v>515.83735260000003</v>
+      </c>
+      <c r="E6">
+        <v>512.12804430000006</v>
+      </c>
+      <c r="F6">
+        <v>527.79163989999995</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>530.93309499999998</v>
+        <v>508.77845150000002</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
@@ -746,11 +770,11 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>530.93309499999998</v>
-      </c>
-      <c r="J6" t="e">
+        <v>519.09371665999993</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>9.764142842638929</v>
       </c>
       <c r="K6">
         <f>RANK(I6,I2:I9,1)</f>
@@ -776,21 +800,33 @@
       <c r="B7">
         <v>432.97636460000001</v>
       </c>
+      <c r="C7">
+        <v>449.07798639999999</v>
+      </c>
+      <c r="D7">
+        <v>449.50458839999999</v>
+      </c>
+      <c r="E7">
+        <v>435.9321817</v>
+      </c>
+      <c r="F7">
+        <v>439.75589150000002</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
         <v>432.97636460000001</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>432.97636460000001</v>
+        <v>449.50458839999999</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>432.97636460000001</v>
-      </c>
-      <c r="J7" t="e">
+        <v>441.44940251999998</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>7.5528370219541916</v>
       </c>
       <c r="K7">
         <f>RANK(I7,I2:I9,1)</f>
@@ -816,25 +852,37 @@
       <c r="B8">
         <v>582.09260849999998</v>
       </c>
+      <c r="C8">
+        <v>600.80218400000001</v>
+      </c>
+      <c r="D8">
+        <v>595.4534572</v>
+      </c>
+      <c r="E8">
+        <v>589.29768300000001</v>
+      </c>
+      <c r="F8">
+        <v>602.23125210000001</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
         <v>582.09260849999998</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>582.09260849999998</v>
+        <v>602.23125210000001</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>582.09260849999998</v>
-      </c>
-      <c r="J8" t="e">
+        <v>593.97543696000002</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>8.3670558878845487</v>
       </c>
       <c r="K8">
         <f>RANK(I8,I2:I9,1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -856,25 +904,37 @@
       <c r="B9">
         <v>560.33793609999998</v>
       </c>
+      <c r="C9">
+        <v>658.73439399999995</v>
+      </c>
+      <c r="D9">
+        <v>675.25190439999994</v>
+      </c>
+      <c r="E9">
+        <v>669.25810439999998</v>
+      </c>
+      <c r="F9">
+        <v>619.28722740000001</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
         <v>560.33793609999998</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>560.33793609999998</v>
+        <v>675.25190439999994</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>560.33793609999998</v>
-      </c>
-      <c r="J9" t="e">
+        <v>636.57391325999993</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>47.869833865630461</v>
       </c>
       <c r="K9">
         <f>RANK(I9,I2:I9,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
